--- a/data/pca/factorExposure/factorExposure_2009-02-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-23.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01671517681132086</v>
+        <v>0.01598872094034902</v>
       </c>
       <c r="C2">
-        <v>0.002562884447527339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.001915589570074364</v>
+      </c>
+      <c r="D2">
+        <v>0.01203502024320344</v>
+      </c>
+      <c r="E2">
+        <v>0.01498411288292582</v>
+      </c>
+      <c r="F2">
+        <v>-0.003293406910227598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +748,319 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08051459347308777</v>
+        <v>0.08360038417828247</v>
       </c>
       <c r="C4">
-        <v>0.02020365967885705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01610570175856436</v>
+      </c>
+      <c r="D4">
+        <v>0.08771196726820384</v>
+      </c>
+      <c r="E4">
+        <v>-0.05872587888336143</v>
+      </c>
+      <c r="F4">
+        <v>0.003505517619227833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.001863386821343658</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.000165969080487378</v>
+      </c>
+      <c r="D5">
+        <v>0.001184872237285279</v>
+      </c>
+      <c r="E5">
+        <v>-0.0005369449892979731</v>
+      </c>
+      <c r="F5">
+        <v>-0.002890290361825243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1644071092758529</v>
+        <v>0.168315444710758</v>
       </c>
       <c r="C6">
-        <v>0.0422015205388656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03828113652125421</v>
+      </c>
+      <c r="D6">
+        <v>-0.007885990454461794</v>
+      </c>
+      <c r="E6">
+        <v>-0.05497745687286852</v>
+      </c>
+      <c r="F6">
+        <v>0.006928814590103835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05497021404455244</v>
+        <v>0.05926157822635795</v>
       </c>
       <c r="C7">
-        <v>0.002369264913967269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0006791707861047713</v>
+      </c>
+      <c r="D7">
+        <v>0.06085541872972996</v>
+      </c>
+      <c r="E7">
+        <v>-0.04909997511900368</v>
+      </c>
+      <c r="F7">
+        <v>0.04166640027324099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05801781494892622</v>
+        <v>0.05365752715190537</v>
       </c>
       <c r="C8">
-        <v>-0.008950204159427518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01084924284928225</v>
+      </c>
+      <c r="D8">
+        <v>0.04172225553578181</v>
+      </c>
+      <c r="E8">
+        <v>0.02040146796208248</v>
+      </c>
+      <c r="F8">
+        <v>-0.02262659721644873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06123670732285505</v>
+        <v>0.0646322778308923</v>
       </c>
       <c r="C9">
-        <v>0.01512918967563107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01119416232139679</v>
+      </c>
+      <c r="D9">
+        <v>0.0920144466180304</v>
+      </c>
+      <c r="E9">
+        <v>-0.07788436690367723</v>
+      </c>
+      <c r="F9">
+        <v>0.005854304790553547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1035406344814843</v>
+        <v>0.09728442327486972</v>
       </c>
       <c r="C10">
-        <v>0.0291785289586911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.0282426589288856</v>
+      </c>
+      <c r="D10">
+        <v>-0.1450597023057928</v>
+      </c>
+      <c r="E10">
+        <v>0.1003659191131136</v>
+      </c>
+      <c r="F10">
+        <v>0.01015271045495977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07979036890419822</v>
+        <v>0.0778200325023248</v>
       </c>
       <c r="C11">
-        <v>0.01685383674229984</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01221297905851345</v>
+      </c>
+      <c r="D11">
+        <v>0.1320004085186827</v>
+      </c>
+      <c r="E11">
+        <v>-0.03847466817789436</v>
+      </c>
+      <c r="F11">
+        <v>-0.01504804598505093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08408347508893471</v>
+        <v>0.07975707836287899</v>
       </c>
       <c r="C12">
-        <v>0.01419701498631503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.009000685993342196</v>
+      </c>
+      <c r="D12">
+        <v>0.1509476745863156</v>
+      </c>
+      <c r="E12">
+        <v>-0.04520802488268967</v>
+      </c>
+      <c r="F12">
+        <v>-0.004435918415347434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04237482760479112</v>
+        <v>0.04248706404412281</v>
       </c>
       <c r="C13">
-        <v>0.00845694063360863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.004227843274903548</v>
+      </c>
+      <c r="D13">
+        <v>0.07031008972346821</v>
+      </c>
+      <c r="E13">
+        <v>-0.02198795569807149</v>
+      </c>
+      <c r="F13">
+        <v>0.01002844895246409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01979174599572458</v>
+        <v>0.02265076305727566</v>
       </c>
       <c r="C14">
-        <v>0.01498541881226825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01405141596494964</v>
+      </c>
+      <c r="D14">
+        <v>0.04553621102755868</v>
+      </c>
+      <c r="E14">
+        <v>-0.03507040548516975</v>
+      </c>
+      <c r="F14">
+        <v>-0.01166108785660712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03023153926652861</v>
+        <v>0.03246628663593901</v>
       </c>
       <c r="C15">
-        <v>0.008124602736114208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.006674362932495821</v>
+      </c>
+      <c r="D15">
+        <v>0.05460972244127444</v>
+      </c>
+      <c r="E15">
+        <v>-0.03440314771505071</v>
+      </c>
+      <c r="F15">
+        <v>0.007050537115139597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.05971129680331931</v>
+        <v>0.05972440612724154</v>
       </c>
       <c r="C16">
-        <v>0.003706829077400859</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.0001661098259046835</v>
+      </c>
+      <c r="D16">
+        <v>0.1458603301456365</v>
+      </c>
+      <c r="E16">
+        <v>-0.04685846350153475</v>
+      </c>
+      <c r="F16">
+        <v>-0.03018285173937203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004111434283479295</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.001050249097307601</v>
+      </c>
+      <c r="D17">
+        <v>0.003615681426029199</v>
+      </c>
+      <c r="E17">
+        <v>0.00121987361424513</v>
+      </c>
+      <c r="F17">
+        <v>-0.008713488637409972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03470751705178379</v>
+        <v>0.05045628464492188</v>
       </c>
       <c r="C18">
-        <v>0.001292847353245479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.00187903981949246</v>
+      </c>
+      <c r="D18">
+        <v>0.0372519886076916</v>
+      </c>
+      <c r="E18">
+        <v>0.01190908887794371</v>
+      </c>
+      <c r="F18">
+        <v>0.0004378554560627991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05766306428944579</v>
+        <v>0.05769864512254064</v>
       </c>
       <c r="C20">
-        <v>0.005163729853428585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.002254388095277005</v>
+      </c>
+      <c r="D20">
+        <v>0.09292378910121057</v>
+      </c>
+      <c r="E20">
+        <v>-0.06402549679275807</v>
+      </c>
+      <c r="F20">
+        <v>-0.02008736434062577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04189971473690204</v>
+        <v>0.04375884683983106</v>
       </c>
       <c r="C21">
-        <v>0.01146826047553074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.008952318744348188</v>
+      </c>
+      <c r="D21">
+        <v>0.05578667565514068</v>
+      </c>
+      <c r="E21">
+        <v>0.00746924563945568</v>
+      </c>
+      <c r="F21">
+        <v>0.005037648017092606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04515926914247661</v>
+        <v>0.0435179093880393</v>
       </c>
       <c r="C22">
-        <v>0.004615201133606698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.002570578460908833</v>
+      </c>
+      <c r="D22">
+        <v>0.02300672662720258</v>
+      </c>
+      <c r="E22">
+        <v>0.04833896909166694</v>
+      </c>
+      <c r="F22">
+        <v>-0.1194270824037874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04516850633187033</v>
+        <v>0.04352579999602935</v>
       </c>
       <c r="C23">
-        <v>0.004618079246745869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.002573095836022085</v>
+      </c>
+      <c r="D23">
+        <v>0.02300086217014114</v>
+      </c>
+      <c r="E23">
+        <v>0.04837003496632387</v>
+      </c>
+      <c r="F23">
+        <v>-0.1194617787200842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.06817589673109442</v>
+        <v>0.06754081505337597</v>
       </c>
       <c r="C24">
-        <v>0.005829439173605963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.001719880605386132</v>
+      </c>
+      <c r="D24">
+        <v>0.1364004409582758</v>
+      </c>
+      <c r="E24">
+        <v>-0.04763491769261763</v>
+      </c>
+      <c r="F24">
+        <v>-0.008941648132739727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07387065956623919</v>
+        <v>0.07217381903701864</v>
       </c>
       <c r="C25">
-        <v>0.008830124420095894</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.004768298154547364</v>
+      </c>
+      <c r="D25">
+        <v>0.1233725734006903</v>
+      </c>
+      <c r="E25">
+        <v>-0.03155737047807489</v>
+      </c>
+      <c r="F25">
+        <v>0.01557522584160816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05534907479346005</v>
+        <v>0.0598322084178223</v>
       </c>
       <c r="C26">
-        <v>0.01891475287436352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01618811341444738</v>
+      </c>
+      <c r="D26">
+        <v>0.06952307483030545</v>
+      </c>
+      <c r="E26">
+        <v>-0.007946043016234756</v>
+      </c>
+      <c r="F26">
+        <v>-0.01204453888168202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1228,219 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1653140262710917</v>
+        <v>0.1687154889189032</v>
       </c>
       <c r="C28">
-        <v>0.03765698061133788</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.03726315207413636</v>
+      </c>
+      <c r="D28">
+        <v>-0.2324448937095641</v>
+      </c>
+      <c r="E28">
+        <v>0.02361324175947305</v>
+      </c>
+      <c r="F28">
+        <v>0.05899577897666351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02396213994155116</v>
+        <v>0.02683840578956186</v>
       </c>
       <c r="C29">
-        <v>0.009486643006338278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.009191296943843658</v>
+      </c>
+      <c r="D29">
+        <v>0.04495887963323553</v>
+      </c>
+      <c r="E29">
+        <v>0.002343818110287964</v>
+      </c>
+      <c r="F29">
+        <v>-0.02601166620195129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04127707306862299</v>
+        <v>0.04265714158781042</v>
       </c>
       <c r="C30">
-        <v>0.003922157386852417</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.0007429900137071922</v>
+      </c>
+      <c r="D30">
+        <v>0.07667559405718212</v>
+      </c>
+      <c r="E30">
+        <v>-0.1013861206257453</v>
+      </c>
+      <c r="F30">
+        <v>0.05606016249047142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05159699730115091</v>
+        <v>0.05138649674599005</v>
       </c>
       <c r="C31">
-        <v>0.02038887735955718</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01776979190936892</v>
+      </c>
+      <c r="D31">
+        <v>0.03915628006838787</v>
+      </c>
+      <c r="E31">
+        <v>-0.009633787128906737</v>
+      </c>
+      <c r="F31">
+        <v>-0.03671603533831877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0433856608527084</v>
+        <v>0.04829089550163314</v>
       </c>
       <c r="C32">
-        <v>0.001078124390621859</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001011906284461169</v>
+      </c>
+      <c r="D32">
+        <v>0.04425216397185453</v>
+      </c>
+      <c r="E32">
+        <v>-0.02116784000303569</v>
+      </c>
+      <c r="F32">
+        <v>-0.02665724467741596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.07967712891539018</v>
+        <v>0.08267283490987849</v>
       </c>
       <c r="C33">
-        <v>0.0133326547985505</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008279037370297813</v>
+      </c>
+      <c r="D33">
+        <v>0.1196446557785212</v>
+      </c>
+      <c r="E33">
+        <v>-0.05412204000359243</v>
+      </c>
+      <c r="F33">
+        <v>-0.02433475897002324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0570134980374647</v>
+        <v>0.05695604467080635</v>
       </c>
       <c r="C34">
-        <v>0.01427428463622294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.009832458760999464</v>
+      </c>
+      <c r="D34">
+        <v>0.1268776220163678</v>
+      </c>
+      <c r="E34">
+        <v>-0.05343355659912926</v>
+      </c>
+      <c r="F34">
+        <v>0.01378030789761653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02685601669319457</v>
+        <v>0.02848256179295899</v>
       </c>
       <c r="C35">
-        <v>0.005749222093470356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.00482863293681081</v>
+      </c>
+      <c r="D35">
+        <v>0.01889977159920082</v>
+      </c>
+      <c r="E35">
+        <v>-0.01304291851535879</v>
+      </c>
+      <c r="F35">
+        <v>-0.02427044290461367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02229559305450076</v>
+        <v>0.02699222031608952</v>
       </c>
       <c r="C36">
-        <v>0.008801069295390634</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007831942656638851</v>
+      </c>
+      <c r="D36">
+        <v>0.04847112376223776</v>
+      </c>
+      <c r="E36">
+        <v>-0.04220690028570478</v>
+      </c>
+      <c r="F36">
+        <v>-0.01884598816928149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003190268183053492</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.0008447728880733847</v>
+      </c>
+      <c r="D37">
+        <v>0.005544533508105204</v>
+      </c>
+      <c r="E37">
+        <v>0.0005278513191545798</v>
+      </c>
+      <c r="F37">
+        <v>-0.001316951027090417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1448,79 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.08535349383035051</v>
+        <v>0.07942101973941293</v>
       </c>
       <c r="C39">
-        <v>0.01899377454175902</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01370888102084366</v>
+      </c>
+      <c r="D39">
+        <v>0.1514765748134634</v>
+      </c>
+      <c r="E39">
+        <v>-0.02956996667792803</v>
+      </c>
+      <c r="F39">
+        <v>-0.01341445716073746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04500799496426795</v>
+        <v>0.05047133793641731</v>
       </c>
       <c r="C40">
-        <v>0.01315958855879491</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01132431616473673</v>
+      </c>
+      <c r="D40">
+        <v>0.06380425252998372</v>
+      </c>
+      <c r="E40">
+        <v>0.002562275579389243</v>
+      </c>
+      <c r="F40">
+        <v>-0.0009693481696567703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02683183309447115</v>
+        <v>0.02876922318910703</v>
       </c>
       <c r="C41">
-        <v>0.009057054143665864</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008256196199275674</v>
+      </c>
+      <c r="D41">
+        <v>0.02411812283605832</v>
+      </c>
+      <c r="E41">
+        <v>0.005401312992232445</v>
+      </c>
+      <c r="F41">
+        <v>-0.00450836884184442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1528,179 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04183045485379855</v>
+        <v>0.0408034902321316</v>
       </c>
       <c r="C43">
-        <v>0.01036180941097584</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.009068014498278223</v>
+      </c>
+      <c r="D43">
+        <v>0.03641263540986815</v>
+      </c>
+      <c r="E43">
+        <v>0.005993565915875475</v>
+      </c>
+      <c r="F43">
+        <v>-0.02527751198689739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05439318216635183</v>
+        <v>0.06264387782946122</v>
       </c>
       <c r="C44">
-        <v>0.02076039075719412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.01850264097873471</v>
+      </c>
+      <c r="D44">
+        <v>0.08736874443697314</v>
+      </c>
+      <c r="E44">
+        <v>-0.2486719097943789</v>
+      </c>
+      <c r="F44">
+        <v>0.0316459479248932</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001356314494308498</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-6.354847127560938e-05</v>
+      </c>
+      <c r="D45">
+        <v>0.0001637427721428801</v>
+      </c>
+      <c r="E45">
+        <v>0.0003285205607988697</v>
+      </c>
+      <c r="F45">
+        <v>0.0001605196775528362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02640392875695027</v>
+        <v>0.0265977417773383</v>
       </c>
       <c r="C46">
-        <v>0.00628730012945603</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.004933959678567636</v>
+      </c>
+      <c r="D46">
+        <v>0.03005955067783234</v>
+      </c>
+      <c r="E46">
+        <v>-0.001465454023276441</v>
+      </c>
+      <c r="F46">
+        <v>-0.03528621805369407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05141810346107793</v>
+        <v>0.05084658113329907</v>
       </c>
       <c r="C47">
-        <v>0.007789592492860609</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.005552434542855129</v>
+      </c>
+      <c r="D47">
+        <v>0.02463683195507723</v>
+      </c>
+      <c r="E47">
+        <v>0.01846698174633799</v>
+      </c>
+      <c r="F47">
+        <v>-0.05329891240371872</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0467964363125161</v>
+        <v>0.05030637482066976</v>
       </c>
       <c r="C48">
-        <v>0.006206595726371723</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.003948999707568891</v>
+      </c>
+      <c r="D48">
+        <v>0.06491913566399751</v>
+      </c>
+      <c r="E48">
+        <v>-0.01438235464137057</v>
+      </c>
+      <c r="F48">
+        <v>0.01766536783477767</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1930531908454991</v>
+        <v>0.1967354551740394</v>
       </c>
       <c r="C49">
-        <v>0.03309075415325029</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.02745111697443399</v>
+      </c>
+      <c r="D49">
+        <v>-0.006888213232155584</v>
+      </c>
+      <c r="E49">
+        <v>-0.04091960311047272</v>
+      </c>
+      <c r="F49">
+        <v>0.02768249847631647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04981088910836925</v>
+        <v>0.05172387392775853</v>
       </c>
       <c r="C50">
-        <v>0.01564581592136848</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01371923667255447</v>
+      </c>
+      <c r="D50">
+        <v>0.03606435195846713</v>
+      </c>
+      <c r="E50">
+        <v>-0.02263158429688429</v>
+      </c>
+      <c r="F50">
+        <v>-0.02613366333571445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1708,119 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1438951549079271</v>
+        <v>0.1382984002418771</v>
       </c>
       <c r="C52">
-        <v>0.02752972620252733</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.02269156740758034</v>
+      </c>
+      <c r="D52">
+        <v>0.04235245933075742</v>
+      </c>
+      <c r="E52">
+        <v>-0.05606603188928146</v>
+      </c>
+      <c r="F52">
+        <v>-0.02901635578858483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1741253490504628</v>
+        <v>0.1663276650666895</v>
       </c>
       <c r="C53">
-        <v>0.03370456475654549</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.02862393252736434</v>
+      </c>
+      <c r="D53">
+        <v>0.01733232904169836</v>
+      </c>
+      <c r="E53">
+        <v>-0.1090505269708661</v>
+      </c>
+      <c r="F53">
+        <v>-0.02826602496641742</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01113830039915767</v>
+        <v>0.01455527275583408</v>
       </c>
       <c r="C54">
-        <v>0.01135307278964523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.0105139872124794</v>
+      </c>
+      <c r="D54">
+        <v>0.03461523793917996</v>
+      </c>
+      <c r="E54">
+        <v>-0.008642379531491098</v>
+      </c>
+      <c r="F54">
+        <v>-0.01738996539371314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1195456016348688</v>
+        <v>0.1169472017040543</v>
       </c>
       <c r="C55">
-        <v>0.0285178386330046</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.02471477949165377</v>
+      </c>
+      <c r="D55">
+        <v>0.01911972868291888</v>
+      </c>
+      <c r="E55">
+        <v>-0.0635050807650899</v>
+      </c>
+      <c r="F55">
+        <v>-0.05316910644173237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1794848924161997</v>
+        <v>0.1733454053794735</v>
       </c>
       <c r="C56">
-        <v>0.03146506674955388</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.0269770792050476</v>
+      </c>
+      <c r="D56">
+        <v>0.004775734404083347</v>
+      </c>
+      <c r="E56">
+        <v>-0.06440466095649415</v>
+      </c>
+      <c r="F56">
+        <v>-0.04405300962621439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1828,379 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04613519694264014</v>
+        <v>0.04554587255800741</v>
       </c>
       <c r="C58">
-        <v>0.00515232230503097</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001286941532674981</v>
+      </c>
+      <c r="D58">
+        <v>0.1007057890361318</v>
+      </c>
+      <c r="E58">
+        <v>0.008000872464182912</v>
+      </c>
+      <c r="F58">
+        <v>-0.04276371510758927</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1808209511228684</v>
+        <v>0.1847639480946204</v>
       </c>
       <c r="C59">
-        <v>0.0359798784668517</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.03534157886495172</v>
+      </c>
+      <c r="D59">
+        <v>-0.1958226881070105</v>
+      </c>
+      <c r="E59">
+        <v>0.08324269146962482</v>
+      </c>
+      <c r="F59">
+        <v>0.006592509365697175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.217024152805131</v>
+        <v>0.2128135201674413</v>
       </c>
       <c r="C60">
-        <v>0.01245721200929984</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.006115546954133715</v>
+      </c>
+      <c r="D60">
+        <v>0.02100353006537377</v>
+      </c>
+      <c r="E60">
+        <v>0.02265075774556057</v>
+      </c>
+      <c r="F60">
+        <v>-0.008276638457130064</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.06727324879245031</v>
+        <v>0.06416334172178079</v>
       </c>
       <c r="C61">
-        <v>0.01514418058187027</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01051618231956108</v>
+      </c>
+      <c r="D61">
+        <v>0.1249953520198654</v>
+      </c>
+      <c r="E61">
+        <v>-0.0215726174685454</v>
+      </c>
+      <c r="F61">
+        <v>-0.02547073281571741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1666037438619868</v>
+        <v>0.1638174679735546</v>
       </c>
       <c r="C62">
-        <v>0.03320080815632853</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.02882764214250809</v>
+      </c>
+      <c r="D62">
+        <v>0.00348620422320185</v>
+      </c>
+      <c r="E62">
+        <v>-0.0524146344936807</v>
+      </c>
+      <c r="F62">
+        <v>-0.04792395850431354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03845275092255164</v>
+        <v>0.04341860532094311</v>
       </c>
       <c r="C63">
-        <v>0.004906014994192859</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002934214794737075</v>
+      </c>
+      <c r="D63">
+        <v>0.07274006173815793</v>
+      </c>
+      <c r="E63">
+        <v>-0.01470287811611267</v>
+      </c>
+      <c r="F63">
+        <v>-0.02770750049949076</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.111455701506481</v>
+        <v>0.1099271382331918</v>
       </c>
       <c r="C64">
-        <v>0.02148749956406877</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01697101045690786</v>
+      </c>
+      <c r="D64">
+        <v>0.0576407368686473</v>
+      </c>
+      <c r="E64">
+        <v>-0.03822730581228593</v>
+      </c>
+      <c r="F64">
+        <v>-0.01486531867210798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.15326747930141</v>
+        <v>0.1576707852773374</v>
       </c>
       <c r="C65">
-        <v>0.04835882353842925</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04516440682172795</v>
+      </c>
+      <c r="D65">
+        <v>-0.04332920270472217</v>
+      </c>
+      <c r="E65">
+        <v>-0.05164514088093303</v>
+      </c>
+      <c r="F65">
+        <v>-0.005342621962528778</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1042843126649377</v>
+        <v>0.09739384278670432</v>
       </c>
       <c r="C66">
-        <v>0.01751988862923359</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01145025523004194</v>
+      </c>
+      <c r="D66">
+        <v>0.1370004811540839</v>
+      </c>
+      <c r="E66">
+        <v>-0.03264672977429005</v>
+      </c>
+      <c r="F66">
+        <v>-0.01064140654572139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05774675516339503</v>
+        <v>0.04867514935510593</v>
       </c>
       <c r="C67">
-        <v>0.006130183081966194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003183771046582881</v>
+      </c>
+      <c r="D67">
+        <v>0.06862555678818204</v>
+      </c>
+      <c r="E67">
+        <v>0.06091120395211869</v>
+      </c>
+      <c r="F67">
+        <v>-0.0659761560314851</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1339002944486316</v>
+        <v>0.1379663374156777</v>
       </c>
       <c r="C68">
-        <v>0.04376954688835987</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04541066166011698</v>
+      </c>
+      <c r="D68">
+        <v>-0.2469504819681305</v>
+      </c>
+      <c r="E68">
+        <v>0.03304895869892331</v>
+      </c>
+      <c r="F68">
+        <v>0.09403511890270706</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0391672085966125</v>
+        <v>0.03887114204841883</v>
       </c>
       <c r="C69">
-        <v>0.004083908771056323</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.002669334909156407</v>
+      </c>
+      <c r="D69">
+        <v>0.01512817404507678</v>
+      </c>
+      <c r="E69">
+        <v>-0.00931091885922887</v>
+      </c>
+      <c r="F69">
+        <v>-0.06022613672108091</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.07175939270849895</v>
+        <v>0.072498518856213</v>
       </c>
       <c r="C70">
-        <v>-0.02089004453039028</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02293293946752179</v>
+      </c>
+      <c r="D70">
+        <v>0.05970877895165092</v>
+      </c>
+      <c r="E70">
+        <v>0.36890014561841</v>
+      </c>
+      <c r="F70">
+        <v>-0.1256368261197617</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.155108256276494</v>
+        <v>0.1603995194735707</v>
       </c>
       <c r="C71">
-        <v>0.05086002778963566</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05173995147581277</v>
+      </c>
+      <c r="D71">
+        <v>-0.2531844611379588</v>
+      </c>
+      <c r="E71">
+        <v>0.04009117081510391</v>
+      </c>
+      <c r="F71">
+        <v>0.1051019012914718</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1397799798483904</v>
+        <v>0.1458609216110744</v>
       </c>
       <c r="C72">
-        <v>0.03757491765293493</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03493833799145953</v>
+      </c>
+      <c r="D72">
+        <v>0.01392091557465862</v>
+      </c>
+      <c r="E72">
+        <v>-0.06103283956058741</v>
+      </c>
+      <c r="F72">
+        <v>-0.04393218701607834</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1919040440346859</v>
+        <v>0.1999999437906999</v>
       </c>
       <c r="C73">
-        <v>0.0263268981149955</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01974414169368447</v>
+      </c>
+      <c r="D73">
+        <v>0.03026140215918667</v>
+      </c>
+      <c r="E73">
+        <v>-0.06093040800608396</v>
+      </c>
+      <c r="F73">
+        <v>-0.07236035098826608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08686581507681182</v>
+        <v>0.08696327115906352</v>
       </c>
       <c r="C74">
-        <v>0.01860393778765422</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01592282914467711</v>
+      </c>
+      <c r="D74">
+        <v>0.0198530468443491</v>
+      </c>
+      <c r="E74">
+        <v>-0.08221486069799432</v>
+      </c>
+      <c r="F74">
+        <v>-0.03037862747505306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1226125935084169</v>
+        <v>0.1162768930698276</v>
       </c>
       <c r="C75">
-        <v>0.03678930892750635</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03221327555994042</v>
+      </c>
+      <c r="D75">
+        <v>0.03213650511379392</v>
+      </c>
+      <c r="E75">
+        <v>-0.05303947710236451</v>
+      </c>
+      <c r="F75">
+        <v>-0.06713353533781682</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2208,519 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07350505056351779</v>
+        <v>0.08740252492334936</v>
       </c>
       <c r="C77">
-        <v>0.01466546996745226</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.01210820548077238</v>
+      </c>
+      <c r="D77">
+        <v>0.1254904052943554</v>
+      </c>
+      <c r="E77">
+        <v>-0.06782900665330151</v>
+      </c>
+      <c r="F77">
+        <v>0.008204152914107804</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.08878668954516863</v>
+        <v>0.09167870392118449</v>
       </c>
       <c r="C78">
-        <v>0.0423001833134148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03908911109421351</v>
+      </c>
+      <c r="D78">
+        <v>0.142239366013686</v>
+      </c>
+      <c r="E78">
+        <v>-0.05880938748302049</v>
+      </c>
+      <c r="F78">
+        <v>0.001744648625345328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1664565878721668</v>
+        <v>0.1623900686260234</v>
       </c>
       <c r="C79">
-        <v>0.03670538430099955</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.03168737532323404</v>
+      </c>
+      <c r="D79">
+        <v>0.02725697218258381</v>
+      </c>
+      <c r="E79">
+        <v>-0.0341392709567662</v>
+      </c>
+      <c r="F79">
+        <v>-0.04374239383641388</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07636432050601388</v>
+        <v>0.07376568278200393</v>
       </c>
       <c r="C80">
-        <v>0.004605217760800355</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.001882434153884243</v>
+      </c>
+      <c r="D80">
+        <v>0.06014659066904809</v>
+      </c>
+      <c r="E80">
+        <v>0.02002077925939287</v>
+      </c>
+      <c r="F80">
+        <v>-0.05133188255298927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1096392397584448</v>
+        <v>0.1045935527060129</v>
       </c>
       <c r="C81">
-        <v>0.03768619445764113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03478440881837649</v>
+      </c>
+      <c r="D81">
+        <v>-0.002813055351291474</v>
+      </c>
+      <c r="E81">
+        <v>-0.03030511553058136</v>
+      </c>
+      <c r="F81">
+        <v>-0.06698033213240104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.158970065159456</v>
+        <v>0.1570811770969301</v>
       </c>
       <c r="C82">
-        <v>0.03628222721562401</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.03156315272257033</v>
+      </c>
+      <c r="D82">
+        <v>-0.008227810228432419</v>
+      </c>
+      <c r="E82">
+        <v>-0.09757898917678993</v>
+      </c>
+      <c r="F82">
+        <v>-0.02059791152221836</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05337997826502845</v>
+        <v>0.04942501873599145</v>
       </c>
       <c r="C83">
-        <v>0.006594697434077512</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.004030351094179234</v>
+      </c>
+      <c r="D83">
+        <v>0.05547931922402027</v>
+      </c>
+      <c r="E83">
+        <v>0.0117678713295107</v>
+      </c>
+      <c r="F83">
+        <v>-0.00662966971340997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05105937853186875</v>
+        <v>0.04866547087514827</v>
       </c>
       <c r="C84">
-        <v>0.01415137580356383</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01127233503984352</v>
+      </c>
+      <c r="D84">
+        <v>0.07601136371040029</v>
+      </c>
+      <c r="E84">
+        <v>-0.006551852060416054</v>
+      </c>
+      <c r="F84">
+        <v>-0.00749147893208769</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1386718596530412</v>
+        <v>0.1338195177097333</v>
       </c>
       <c r="C85">
-        <v>0.03995625370452817</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03557461846636827</v>
+      </c>
+      <c r="D85">
+        <v>0.02272736270790043</v>
+      </c>
+      <c r="E85">
+        <v>-0.08734290284238785</v>
+      </c>
+      <c r="F85">
+        <v>-0.03444495329162169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08719123978901253</v>
+        <v>0.08256752318976636</v>
       </c>
       <c r="C86">
-        <v>-0.0003364636073858019</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.004779055761906961</v>
+      </c>
+      <c r="D86">
+        <v>0.1024390595262559</v>
+      </c>
+      <c r="E86">
+        <v>0.6462347132661058</v>
+      </c>
+      <c r="F86">
+        <v>-0.4683313677441432</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08703470381042366</v>
+        <v>0.08737657568074078</v>
       </c>
       <c r="C87">
-        <v>0.02932446368348128</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02442948155672769</v>
+      </c>
+      <c r="D87">
+        <v>0.08951549444956519</v>
+      </c>
+      <c r="E87">
+        <v>-0.03715829035678217</v>
+      </c>
+      <c r="F87">
+        <v>0.1024927646667448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06135897042293074</v>
+        <v>0.06066344236812895</v>
       </c>
       <c r="C88">
-        <v>0.008249582130709737</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.005543920716724235</v>
+      </c>
+      <c r="D88">
+        <v>0.06390420215483526</v>
+      </c>
+      <c r="E88">
+        <v>-0.01644372499783974</v>
+      </c>
+      <c r="F88">
+        <v>-0.0162945801935731</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1425224868377867</v>
+        <v>0.1458293487868428</v>
       </c>
       <c r="C89">
-        <v>0.02378434820828878</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.02575538181358477</v>
+      </c>
+      <c r="D89">
+        <v>-0.2176306949002696</v>
+      </c>
+      <c r="E89">
+        <v>0.02689474384466649</v>
+      </c>
+      <c r="F89">
+        <v>0.09482511975595433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1691051269838775</v>
+        <v>0.1773333662107988</v>
       </c>
       <c r="C90">
-        <v>0.04809525867251781</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.0494957801864507</v>
+      </c>
+      <c r="D90">
+        <v>-0.2420781238641243</v>
+      </c>
+      <c r="E90">
+        <v>0.05808487430274159</v>
+      </c>
+      <c r="F90">
+        <v>0.1354446841225672</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1250311643136755</v>
+        <v>0.1198428469900295</v>
       </c>
       <c r="C91">
-        <v>0.03033776286497478</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.02722076469872615</v>
+      </c>
+      <c r="D91">
+        <v>-0.01280169607106512</v>
+      </c>
+      <c r="E91">
+        <v>-0.01900515993988042</v>
+      </c>
+      <c r="F91">
+        <v>-0.09836156278799955</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1644775719585488</v>
+        <v>0.1678935484008448</v>
       </c>
       <c r="C92">
-        <v>0.03832862392024017</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.03928256893861307</v>
+      </c>
+      <c r="D92">
+        <v>-0.2790570113097092</v>
+      </c>
+      <c r="E92">
+        <v>0.05066593445573654</v>
+      </c>
+      <c r="F92">
+        <v>0.09170644560908041</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1703095451595482</v>
+        <v>0.1786880297267086</v>
       </c>
       <c r="C93">
-        <v>0.04364742942802508</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.04410289323565875</v>
+      </c>
+      <c r="D93">
+        <v>-0.2352378504850748</v>
+      </c>
+      <c r="E93">
+        <v>0.02570683216440627</v>
+      </c>
+      <c r="F93">
+        <v>0.06995377487132677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1192103060987652</v>
+        <v>0.1139919951790837</v>
       </c>
       <c r="C94">
-        <v>0.03125382900452161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02669216785141602</v>
+      </c>
+      <c r="D94">
+        <v>0.04234149691949936</v>
+      </c>
+      <c r="E94">
+        <v>-0.04715520415025389</v>
+      </c>
+      <c r="F94">
+        <v>-0.06582452367936958</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1206597184098039</v>
+        <v>0.1238045733286966</v>
       </c>
       <c r="C95">
-        <v>0.01386318111513177</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.008065065781047411</v>
+      </c>
+      <c r="D95">
+        <v>0.1221009507032913</v>
+      </c>
+      <c r="E95">
+        <v>-0.006794695775065225</v>
+      </c>
+      <c r="F95">
+        <v>-0.04118361949697924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1895512261136692</v>
+        <v>0.164492470710039</v>
       </c>
       <c r="C96">
-        <v>-0.9759121092669495</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9796575494807228</v>
+      </c>
+      <c r="D96">
+        <v>-0.05943528231114873</v>
+      </c>
+      <c r="E96">
+        <v>-0.05755032126714733</v>
+      </c>
+      <c r="F96">
+        <v>-0.0196191719719744</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1917727007569402</v>
+        <v>0.1961774982242715</v>
       </c>
       <c r="C97">
-        <v>0.009308602207457498</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.004136259784793132</v>
+      </c>
+      <c r="D97">
+        <v>-0.01356350524538379</v>
+      </c>
+      <c r="E97">
+        <v>0.1529883545871045</v>
+      </c>
+      <c r="F97">
+        <v>-0.06945904739218552</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1961067053638334</v>
+        <v>0.202824084441816</v>
       </c>
       <c r="C98">
-        <v>0.02297310834022279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01636057954986671</v>
+      </c>
+      <c r="D98">
+        <v>0.0286107542185898</v>
+      </c>
+      <c r="E98">
+        <v>0.09853463507030653</v>
+      </c>
+      <c r="F98">
+        <v>0.04331751508787168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05486812139748895</v>
+        <v>0.0544445171926026</v>
       </c>
       <c r="C99">
-        <v>-0.0004486217772355471</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.002584541645978111</v>
+      </c>
+      <c r="D99">
+        <v>0.05778504467833918</v>
+      </c>
+      <c r="E99">
+        <v>-0.00174096799475018</v>
+      </c>
+      <c r="F99">
+        <v>-0.007469327635145072</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1173934137002647</v>
+        <v>0.10977596258001</v>
       </c>
       <c r="C100">
-        <v>-0.03386444137148137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.04060942489602721</v>
+      </c>
+      <c r="D100">
+        <v>0.3445076737895196</v>
+      </c>
+      <c r="E100">
+        <v>0.4197697174595901</v>
+      </c>
+      <c r="F100">
+        <v>0.7574341591938831</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02390258628757352</v>
+        <v>0.0267831863835974</v>
       </c>
       <c r="C101">
-        <v>0.009502890215113746</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.009238177664566057</v>
+      </c>
+      <c r="D101">
+        <v>0.04451385318626085</v>
+      </c>
+      <c r="E101">
+        <v>0.005044600493549939</v>
+      </c>
+      <c r="F101">
+        <v>-0.02682146094314453</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
